--- a/SAC/Formatos/Formato_Informe_Ejecucion.xlsx
+++ b/SAC/Formatos/Formato_Informe_Ejecucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monica.lozano\Documents\Validacion_Portabilidad\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\SAC\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27905475-2792-4861-81C4-B8C9FE449A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322608BE-C297-4AB4-9AD2-644DBE7A89E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -33,63 +33,27 @@
     <t>TODO CLARO</t>
   </si>
   <si>
-    <t>CUENTA HOGAR</t>
-  </si>
-  <si>
     <t>CEDULA AGENTE</t>
   </si>
   <si>
     <t>NOMBRE AGENTE</t>
   </si>
   <si>
-    <t>ID ASIGNACION</t>
-  </si>
-  <si>
     <t>FECHA VENTA</t>
   </si>
   <si>
     <t>TIPO DE VENTA</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>SIN COBERTURA</t>
-  </si>
-  <si>
-    <t>DESCUENTO FAMILIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN A GESTIONAR </t>
-  </si>
-  <si>
     <t>CEDULA CLIENTE</t>
   </si>
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
   <si>
-    <t>FECHA NACIMIENTO CLIENTE</t>
-  </si>
-  <si>
-    <t>FECHA DE EXP CLIENTE</t>
-  </si>
-  <si>
-    <t>CEULAR ALTERNO</t>
-  </si>
-  <si>
-    <t>TIPO DE EQUIPO</t>
-  </si>
-  <si>
     <t>CORREO</t>
   </si>
   <si>
-    <t>DIRECCION ENTREGA SIM CARD</t>
-  </si>
-  <si>
-    <t>DIRECCION DOMICILIO</t>
-  </si>
-  <si>
     <t>BARRIO</t>
   </si>
   <si>
@@ -99,99 +63,9 @@
     <t>DEPARTAMENTO</t>
   </si>
   <si>
-    <t>OPERADOR DONANTE</t>
-  </si>
-  <si>
-    <t>ES POST O PRE</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>PLAN SOLICITADO</t>
-  </si>
-  <si>
-    <t>TIPO PLAN</t>
-  </si>
-  <si>
-    <t>CFM PLAN</t>
-  </si>
-  <si>
-    <t>TIPO DE VALIDACION</t>
-  </si>
-  <si>
-    <t>CONSECUTIVO ID</t>
-  </si>
-  <si>
-    <t>ICCID</t>
-  </si>
-  <si>
-    <t>MIN ICCID</t>
-  </si>
-  <si>
-    <t>ICCID COMPRADO</t>
-  </si>
-  <si>
-    <t>FECHA GRABACION</t>
-  </si>
-  <si>
-    <t>HORA GRABACION</t>
-  </si>
-  <si>
-    <t>EXTENSION</t>
-  </si>
-  <si>
-    <t>TELEFONO GRABACION</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES ASESOR</t>
-  </si>
-  <si>
-    <t>OBSERVACION BACK</t>
-  </si>
-  <si>
-    <t>CAUSAL RECHAZO ABD</t>
-  </si>
-  <si>
-    <t>SUB ESTADO RECHAZO ABD</t>
-  </si>
-  <si>
-    <t>VIGENCIA VALIDACION</t>
-  </si>
-  <si>
-    <t>VIGENCIA NIP</t>
-  </si>
-  <si>
-    <t>FECHA ULTIMA REDIGITACION</t>
-  </si>
-  <si>
-    <t>CANTIDAD DE REDIGITACIONES</t>
-  </si>
-  <si>
     <t>ESTADO</t>
   </si>
   <si>
-    <t>OPERADOR LOGISTICO</t>
-  </si>
-  <si>
-    <t>FECHA DIGITACION</t>
-  </si>
-  <si>
-    <t>ESTADO LOGISTICO</t>
-  </si>
-  <si>
-    <t>SUB ESTADO LOGISTICO</t>
-  </si>
-  <si>
-    <t>DÍA DE ACTIVACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA DE SOLICITUD SIM</t>
-  </si>
-  <si>
-    <t>FECHA DE ENTREGA PROGAMADA</t>
-  </si>
-  <si>
     <t>ID_CAEX</t>
   </si>
   <si>
@@ -201,21 +75,12 @@
     <t>HORA</t>
   </si>
   <si>
-    <t>REFERIDO</t>
-  </si>
-  <si>
-    <t>CAPAÑA</t>
-  </si>
-  <si>
     <t>CRUCE TODO CLARO</t>
   </si>
   <si>
     <t>TIPIFICACIÓN</t>
   </si>
   <si>
-    <t>PLAN SOLICITADO TEMPORAL</t>
-  </si>
-  <si>
     <t>SUPERVISOR</t>
   </si>
   <si>
@@ -225,9 +90,6 @@
     <t>FECHA DE LEGALIZACIÓN</t>
   </si>
   <si>
-    <t>TMCODE</t>
-  </si>
-  <si>
     <t>REALIZO OFRECIMIENTO Y CUENTA CON LOS DATOS</t>
   </si>
   <si>
@@ -243,16 +105,184 @@
     <t>USUARIO WOLVOX</t>
   </si>
   <si>
-    <t>STATUS_EJECUCION</t>
-  </si>
-  <si>
-    <t>Observaciones_Ejecucion</t>
-  </si>
-  <si>
-    <t>Proveedor Donante</t>
-  </si>
-  <si>
-    <t>Nombre del Distribuidor</t>
+    <t>NÚMERO TODO CLARO</t>
+  </si>
+  <si>
+    <t>TIPO DE RED</t>
+  </si>
+  <si>
+    <t>CUENTA NUEVA</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>SUB ESTADO</t>
+  </si>
+  <si>
+    <t>FECHA DE INSTALACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE EXPEDICIÓN CLIENTE</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>TELEFONO 2</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>ESTRATO</t>
+  </si>
+  <si>
+    <t>TIPO FACTURA</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE DECOS</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>VELOCIDAD</t>
+  </si>
+  <si>
+    <t>TELEFONIA</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>WIN +</t>
+  </si>
+  <si>
+    <t>HOT PACK</t>
+  </si>
+  <si>
+    <t>WIN SD</t>
+  </si>
+  <si>
+    <t>GOLDEN</t>
+  </si>
+  <si>
+    <t>UNIVERSAL +</t>
+  </si>
+  <si>
+    <t>PAQUETE INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>NETFLIX STAND ALONE</t>
+  </si>
+  <si>
+    <t>HBO MAX</t>
+  </si>
+  <si>
+    <t>NETFLIX BONDLE</t>
+  </si>
+  <si>
+    <t>T - RESUELVE BRONCE</t>
+  </si>
+  <si>
+    <t>T - RESUELVE PLATA</t>
+  </si>
+  <si>
+    <t>T - RESUELVE ORO</t>
+  </si>
+  <si>
+    <t>MULTIASISTENCIAS</t>
+  </si>
+  <si>
+    <t>MULTIASISTENCIAS PET</t>
+  </si>
+  <si>
+    <t>Universal</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>ULTRA WIFI</t>
+  </si>
+  <si>
+    <t>CAMPAÑA</t>
+  </si>
+  <si>
+    <t>POLITICA</t>
+  </si>
+  <si>
+    <t>CÓDIGO DE TARIFA</t>
+  </si>
+  <si>
+    <t>RENTA</t>
+  </si>
+  <si>
+    <t>CUENTA REFERIDO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES DEL ASESOR</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>TELEFONO DE GRABACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE GRABACIÓN</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES BACK</t>
+  </si>
+  <si>
+    <t>FRANJA</t>
+  </si>
+  <si>
+    <t>RADICADO</t>
+  </si>
+  <si>
+    <t>OT A CANCELAR</t>
+  </si>
+  <si>
+    <t>RAZON DE INSTALACION</t>
+  </si>
+  <si>
+    <t>GRUPO DE GESTIÓN</t>
+  </si>
+  <si>
+    <t>TIPO TODO CLARO</t>
+  </si>
+  <si>
+    <t>NUMERO TIPO TODO CLARO</t>
+  </si>
+  <si>
+    <t>TIPO VALIDACION</t>
+  </si>
+  <si>
+    <t>FECHA DIGITALIZAIÓN</t>
+  </si>
+  <si>
+    <t>TIPO CLIENTE INTERNET</t>
+  </si>
+  <si>
+    <t>MINTIC</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -571,246 +601,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY1"/>
+  <dimension ref="A1:CH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CH1" sqref="CH1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="76" max="76" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="BM1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="BN1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="BQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="BS1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="BU1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="BX1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BY1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="CA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CD1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>73</v>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
